--- a/biology/Botanique/Abrodictyum_rigidum/Abrodictyum_rigidum.xlsx
+++ b/biology/Botanique/Abrodictyum_rigidum/Abrodictyum_rigidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum rigidum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus des caractéristiques du genre, le stipe ainsi que le rachis est nu et le limbe des frondes est divisé 4 fois.
 Les sores sont nombreux et disposés régulièrement sur la face inférieure du limbe, souvent en double rangée.
 Le style des sores porte peu de capsules à sa base ; il s'allonge de plus de deux fois la longueur de l'indusie campanulée et parfois crénelée sur les bords.
-L'espèce, comme celles du genre, a comme nombre de base 33 chromosomes. J. P. Tilquin, en 1978, fait état d'un exemplaire tétraploïde (2 * 66 paires de chromosomes)[1].
+L'espèce, comme celles du genre, a comme nombre de base 33 chromosomes. J. P. Tilquin, en 1978, fait état d'un exemplaire tétraploïde (2 * 66 paires de chromosomes).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum rigidum est une espèce à très vaste répartition : Asie du Sud (Inde, Indochine), Océanie (y compris la Nouvelle-Zélande et la Nouvelle-Calédonie), Madagascar et Afrique centrale et du Sud, Amérique centrale et du Sud et Caraïbe.
 Elle est principalement terrestre de forêts humides.
@@ -577,13 +593,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olof Peter Swartz décrit cette espèce à partir d'un exemplaire collecté à la Jamaïque sous le nom de Trichomanes rigidum[2]
-En 1938, Edwin Bingham Copeland la transfère dans le genre Selenodesmium : Selenodesmium rigidum (Sw.) Copel.[3].
-En 1974, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichomanes[4].
-En 1984, Kunio Iwatsuki le déplace dans le genre Cephalomanes : Cephalomanes rigidum (Sw.) K.Iwats.[5]
-Enfin, en 2006, Atsushi Ebihara et  Jean-Yves Dubuisson la placent dans le genre Abrodictyum et dans le sous-genre Pachychaetum comme espèce type de ce sous-genre[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olof Peter Swartz décrit cette espèce à partir d'un exemplaire collecté à la Jamaïque sous le nom de Trichomanes rigidum
+En 1938, Edwin Bingham Copeland la transfère dans le genre Selenodesmium : Selenodesmium rigidum (Sw.) Copel..
+En 1974, Conrad Vernon Morton la place dans la section Pachychaetum du sous-genre Pachychaetum du genre Trichomanes.
+En 1984, Kunio Iwatsuki le déplace dans le genre Cephalomanes : Cephalomanes rigidum (Sw.) K.Iwats.
+Enfin, en 2006, Atsushi Ebihara et  Jean-Yves Dubuisson la placent dans le genre Abrodictyum et dans le sous-genre Pachychaetum comme espèce type de ce sous-genre.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette espèce est classée dans le sous-genre Pachycheatum.
 Elle compte d'abord les synonymes liés aux révisions de la famille des Hymenophyllacées :
@@ -633,7 +653,7 @@
 Trichomanes rigidum var. firmulum (C.Presl) Brade
 Trichomanes rigidum var. laxum F.M.Bailey
 Trichomanes rigidum var. mandioccanum (Raddi) Hieron.
-Trichomanes rigidum var. platyrachis Christ[7]
+Trichomanes rigidum var. platyrachis Christ
 Trichomanes rigidum var. setiloba F.Muell.
 Elle compte aussi un homonyme :
 Trichomanes rigidum Ogata : voir Abrodictyum obscurum (Blume) Ebihara &amp; K. Iwats.</t>
